--- a/biology/Biochimie/Leucyl-aminopeptidase/Leucyl-aminopeptidase.xlsx
+++ b/biology/Biochimie/Leucyl-aminopeptidase/Leucyl-aminopeptidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La leucyl-aminopeptidase (EC 3.4.11.1) est une enzyme appartenant au groupe des hydrolases (enzymes catalysant l'hydrolyse de produits métaboliques), sous-groupe des peptidases de type M17 (enzymes coupant des chaînes peptidiques et utilisant un atome métallique lourd dans son site). C'est aussi une exopeptidase, c'est-à-dire une enzyme coupant un polypeptide à partir des extrémités. Son gène est LAP situé sur le chromosome 4 humain.
@@ -512,7 +524,9 @@
           <t>Synthèse et activation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enzyme est produite au niveau du rein et est activée par la présence de métaux lourds (généralement deux ions Zn++). On la trouve chez l'être humain dans les intestins, les reins, la bile, l'estomac, la salive et le plasma sanguin.
 La leucine aminopeptidase peut couper toutes les liaisons d'un peptide à l'exception des liaisons engageant une proline. La proline fait courber la chaine polypeptidique, ce qui arrête la leucine aminopeptidase.
@@ -545,7 +559,9 @@
           <t>Séquence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La leucyl-aminopeptidase humaine comprend 519 acides aminés.
 </t>
